--- a/Coding/Unreal_project/MyCharacterData.xlsx
+++ b/Coding/Unreal_project/MyCharacterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying_Unreal\work\Final_Project_Develop2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whgus\Desktop\WINTER\Graduation_Work\Coding\Unreal_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A9AF0-BC3E-47D8-80D1-DE96C9120DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830DEBC-CFD9-4141-A3E5-FD62C5C6D69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
@@ -25,21 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasUmbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxSnowBalls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMatches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxSnowBalls_byABag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nHasSnowBalls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nHasMatches</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,35 +439,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D538BA-27C2-42AB-99FE-D911400E397E}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -443,15 +505,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -459,15 +543,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -475,15 +581,37 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -491,15 +619,37 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -507,15 +657,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -523,15 +695,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -539,15 +733,37 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -555,203 +771,117 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
